--- a/Comparaison_parametres.xlsx
+++ b/Comparaison_parametres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Cours\ISIMA\ZZ2\Outils_Aide_Décision\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE3A5B49-7D92-41CF-9897-61FC3484B45E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C3454F70-C481-464E-8749-22F9219E9A2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{DC30840E-83DC-46C5-84B1-E207B47245E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>la01</t>
   </si>
@@ -78,26 +78,6 @@
     <t>nb_gene_avant_extermination = 10</t>
   </si>
   <si>
-    <t>nb_max_extermination = 5</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nb_max_extermination = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-  </si>
-  <si>
-    <t>nb_max_extermination = ∞</t>
-  </si>
-  <si>
     <t>Nb génération = 2000</t>
   </si>
   <si>
@@ -108,13 +88,31 @@
   </si>
   <si>
     <t>Durée (s)</t>
+  </si>
+  <si>
+    <t>Arrêt après 5 exterminations</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Données</t>
+  </si>
+  <si>
+    <t>Moyenne :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +134,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -170,12 +162,129 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -185,21 +294,113 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30"/>
@@ -517,554 +718,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1823CF-8DD0-4DB4-8DB9-1687BAA9DCC7}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="O3" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C4" s="28">
         <v>666</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4" s="31">
         <v>695</v>
       </c>
-      <c r="E2" s="1">
-        <f>D2-B2</f>
+      <c r="F4" s="32">
+        <f t="shared" ref="F4:F13" si="0">E4-C4</f>
         <v>29</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G4" s="42">
         <v>0.71699999999999997</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I4" s="34">
         <v>695</v>
       </c>
-      <c r="I2" s="4">
-        <f>H2-B2</f>
+      <c r="J4" s="35">
+        <f>I4-C4</f>
         <v>29</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K4" s="41">
         <v>5.266</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M4" s="37">
         <v>695</v>
       </c>
-      <c r="M2" s="7">
-        <f>L2-B2</f>
+      <c r="N4" s="38">
+        <f>M4-C4</f>
         <v>29</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O4" s="40">
         <v>48.726999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C5" s="28">
         <v>655</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E5" s="31">
         <v>759</v>
       </c>
-      <c r="E3" s="1">
-        <f>D3-B3</f>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G5" s="42">
         <v>0.77100000000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I5" s="34">
         <v>759</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I11" si="0">H3-B3</f>
+      <c r="J5" s="35">
+        <f t="shared" ref="J5:J13" si="1">I5-C5</f>
         <v>104</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K5" s="41">
         <v>5.407</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M5" s="37">
         <v>734</v>
       </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M11" si="1">L3-B3</f>
+      <c r="N5" s="38">
+        <f t="shared" ref="N5:N13" si="2">M5-C5</f>
         <v>79</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O5" s="40">
         <v>48.191000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C6" s="28">
         <v>597</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E6" s="31">
         <v>706</v>
       </c>
-      <c r="E4" s="1">
-        <f>D4-B4</f>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G6" s="42">
         <v>0.76</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I6" s="34">
         <v>703</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
+      <c r="J6" s="35">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K6" s="41">
         <v>5.2519999999999998</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M6" s="37">
         <v>672</v>
       </c>
-      <c r="M4" s="7">
-        <f t="shared" si="1"/>
+      <c r="N6" s="38">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O6" s="40">
         <v>47.963999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C7" s="28">
         <v>590</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E7" s="31">
         <v>691</v>
       </c>
-      <c r="E5" s="1">
-        <f>D5-B5</f>
-        <v>101</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="H5" s="4">
-        <v>691</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="F7" s="32">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="J5" s="4">
+      <c r="G7" s="42">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="I7" s="34">
+        <v>691</v>
+      </c>
+      <c r="J7" s="35">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="K7" s="41">
         <v>5.33</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M7" s="37">
         <v>676</v>
       </c>
-      <c r="M5" s="7">
-        <f t="shared" si="1"/>
+      <c r="N7" s="38">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O7" s="40">
         <v>48.08</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C8" s="28">
         <v>593</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E8" s="31">
         <v>630</v>
       </c>
-      <c r="E6" s="1">
-        <f>D6-B6</f>
+      <c r="F8" s="32">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G8" s="42">
         <v>0.90700000000000003</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I8" s="34">
         <v>593</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4.4619999999999997</v>
-      </c>
-      <c r="L6" s="7">
-        <v>593</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="J8" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="7">
+      <c r="K8" s="41">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="M8" s="37">
+        <v>593</v>
+      </c>
+      <c r="N8" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="40">
         <v>45.241999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C9" s="28">
         <v>926</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E9" s="31">
         <v>1013</v>
       </c>
-      <c r="E7" s="1">
-        <f>D7-B7</f>
-        <v>87</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.877</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1013</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="F9" s="32">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="J7" s="4">
+      <c r="G9" s="42">
+        <v>0.877</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1013</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="K9" s="41">
         <v>8.31</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M9" s="37">
         <v>954</v>
       </c>
-      <c r="M7" s="7">
-        <f t="shared" si="1"/>
+      <c r="N9" s="38">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O9" s="40">
         <v>67.03</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C10" s="28">
         <v>892</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E10" s="31">
         <v>975</v>
       </c>
-      <c r="E8" s="1">
-        <f>D8-B8</f>
-        <v>83</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="H8" s="4">
-        <v>975</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="F10" s="32">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="J8" s="4">
-        <v>7.4870000000000001</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="G10" s="42">
+        <v>0.84</v>
+      </c>
+      <c r="I10" s="34">
         <v>975</v>
       </c>
-      <c r="M8" s="7">
+      <c r="J10" s="35">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="N8" s="7">
+      <c r="K10" s="41">
+        <v>7.4870000000000001</v>
+      </c>
+      <c r="M10" s="37">
+        <v>975</v>
+      </c>
+      <c r="N10" s="38">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="O10" s="40">
         <v>72.837000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C11" s="28">
         <v>863</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E11" s="31">
         <v>1034</v>
       </c>
-      <c r="E9" s="1">
-        <f>D9-B9</f>
+      <c r="F11" s="32">
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G11" s="42">
         <v>0.89200000000000002</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I11" s="34">
         <v>974</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
+      <c r="J11" s="35">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K11" s="41">
         <v>6.8259999999999996</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M11" s="37">
         <v>941</v>
       </c>
-      <c r="M9" s="7">
-        <f t="shared" si="1"/>
+      <c r="N11" s="38">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="N9" s="7">
+      <c r="O11" s="40">
         <v>65.739999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C12" s="28">
         <v>951</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E12" s="31">
         <v>1004</v>
       </c>
-      <c r="E10" s="1">
-        <f>D10-B10</f>
-        <v>53</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1004</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="F12" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="J10" s="4">
-        <v>7.2720000000000002</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="G12" s="42">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I12" s="34">
         <v>1004</v>
       </c>
-      <c r="M10" s="7">
+      <c r="J12" s="35">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="N10" s="7">
+      <c r="K12" s="41">
+        <v>7.2720000000000002</v>
+      </c>
+      <c r="M12" s="37">
+        <v>1004</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="O12" s="40">
         <v>68.658000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C13" s="30">
         <v>958</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E13" s="31">
         <v>975</v>
       </c>
-      <c r="E11" s="1">
-        <f>D11-B11</f>
+      <c r="F13" s="32">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G13" s="42">
         <v>0.73699999999999999</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I13" s="34">
         <v>973</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
+      <c r="J13" s="35">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K13" s="41">
         <v>7.39</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M13" s="37">
         <v>965</v>
       </c>
-      <c r="M11" s="7">
-        <f t="shared" si="1"/>
+      <c r="N13" s="38">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N11" s="7">
+      <c r="O13" s="40">
         <v>71.165999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <f>AVERAGE(E2:E11)</f>
+    <row r="14" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="44">
+        <f>AVERAGE(F4:F13)</f>
         <v>79.099999999999994</v>
       </c>
-      <c r="F13" s="1">
-        <f>AVERAGE(F2:F11)</f>
+      <c r="G14" s="45">
+        <f>AVERAGE(G4:G13)</f>
         <v>0.81189999999999996</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <f>AVERAGE(I2:I11)</f>
+      <c r="I14" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="47">
+        <f>AVERAGE(J4:J13)</f>
         <v>68.900000000000006</v>
       </c>
-      <c r="J13" s="4">
-        <f>AVERAGE(J2:J11)</f>
+      <c r="K14" s="48">
+        <f>AVERAGE(K4:K13)</f>
         <v>6.3002000000000002</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7">
-        <f>AVERAGE(M2:M11)</f>
+      <c r="M14" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="50">
+        <f>AVERAGE(N4:N13)</f>
         <v>51.8</v>
       </c>
-      <c r="N13" s="7">
-        <f>AVERAGE(N2:N11)</f>
+      <c r="O14" s="51">
+        <f>AVERAGE(O4:O13)</f>
         <v>58.363500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="3" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="5" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="L14" s="8" t="s">
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="M15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
+      <c r="N15" s="13"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="5" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="23"/>
+      <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="L15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D16" s="2" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="M16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="5" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="23"/>
+      <c r="I17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="L16" s="9" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="M17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="5:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="L17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="5:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
+  <mergeCells count="14">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
